--- a/bioinformatics-analysis/resources/data-meta.xlsx
+++ b/bioinformatics-analysis/resources/data-meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20182\Desktop\项目\解读平台\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2A85B9-9617-401B-9246-96104DCA14F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF43AA8-3C24-4A56-A5E4-924CC341ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D889C858-21DA-46CE-AF41-06E67CB30F73}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D889C858-21DA-46CE-AF41-06E67CB30F73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>项目编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>文库编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>建库input（ng）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据详情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -474,49 +474,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
